--- a/config_debug/act_053_xcns_config.xlsx
+++ b/config_debug/act_053_xcns_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>line</t>
   </si>
@@ -56,55 +56,82 @@
     <t>award_icon|图标</t>
   </si>
   <si>
-    <t>话费碎片</t>
-  </si>
-  <si>
-    <t>5~30</t>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>玩具锤</t>
+  </si>
+  <si>
+    <t>com_award_icon_cz1</t>
+  </si>
+  <si>
+    <t>请在冲金鸡中使用</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>8000~5万</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_6y</t>
   </si>
   <si>
     <t>福利券</t>
   </si>
   <si>
-    <t>8~50</t>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-  </si>
-  <si>
-    <t>50~200</t>
-  </si>
-  <si>
     <t>ty_icon_flq2</t>
   </si>
   <si>
-    <t>80~300</t>
-  </si>
-  <si>
-    <t>180~800</t>
+    <t>水滴</t>
+  </si>
+  <si>
+    <t>10个到40个</t>
+  </si>
+  <si>
+    <t>zpg_icon_shui</t>
+  </si>
+  <si>
+    <t>请在苹果大战中使用</t>
+  </si>
+  <si>
+    <t>8万~30万</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+  </si>
+  <si>
+    <t>小游戏币</t>
+  </si>
+  <si>
+    <t>18万~80万</t>
+  </si>
+  <si>
+    <t>ty_icon_yxb_2</t>
+  </si>
+  <si>
+    <t>400~2000</t>
   </si>
   <si>
     <t>ty_icon_flq3</t>
   </si>
   <si>
-    <t>400~2000</t>
-  </si>
-  <si>
-    <t>400~2200</t>
+    <t>40万~220万</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_18y</t>
+  </si>
+  <si>
+    <t>80万~500万</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+  </si>
+  <si>
+    <t>800~3000</t>
   </si>
   <si>
     <t>ty_icon_flq4</t>
-  </si>
-  <si>
-    <t>800~5000</t>
-  </si>
-  <si>
-    <t>800~3000</t>
-  </si>
-  <si>
-    <t>ty_icon_flq5</t>
   </si>
 </sst>
 </file>
@@ -113,11 +140,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,52 +153,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,6 +174,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -193,6 +190,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -201,8 +212,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -210,9 +228,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,24 +273,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,24 +302,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,193 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,17 +506,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,15 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -533,22 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,16 +583,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,142 +621,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,7 +1090,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1090,14 +1126,14 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>1000639</v>
+      <c r="B2" s="5">
+        <v>1000651</v>
       </c>
       <c r="C2" s="1">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="D2" s="1">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -1221,23 +1257,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="23.9333333333333" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1253,8 +1290,11 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1262,13 +1302,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1279,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1296,16 +1339,16 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1313,13 +1356,16 @@
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1330,13 +1376,13 @@
         <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1347,13 +1393,13 @@
         <v>400</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1364,13 +1410,13 @@
         <v>800</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1381,13 +1427,13 @@
         <v>1200</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1398,13 +1444,13 @@
         <v>2000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1415,13 +1461,13 @@
         <v>3000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/config_debug/act_053_xcns_config.xlsx
+++ b/config_debug/act_053_xcns_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>line</t>
   </si>
@@ -59,49 +59,37 @@
     <t>tips</t>
   </si>
   <si>
-    <t>玩具锤</t>
-  </si>
-  <si>
-    <t>com_award_icon_cz1</t>
-  </si>
-  <si>
-    <t>请在冲金鸡中使用</t>
+    <t>福利券</t>
+  </si>
+  <si>
+    <t>8~50</t>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+  </si>
+  <si>
+    <t>小游戏币</t>
+  </si>
+  <si>
+    <t>8000~5万</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_6y</t>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+  </si>
+  <si>
+    <t>50~200</t>
   </si>
   <si>
     <t>金币</t>
   </si>
   <si>
-    <t>8000~5万</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_6y</t>
-  </si>
-  <si>
-    <t>福利券</t>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-  </si>
-  <si>
-    <t>水滴</t>
-  </si>
-  <si>
-    <t>10个~40个</t>
-  </si>
-  <si>
-    <t>zpg_icon_shui</t>
-  </si>
-  <si>
-    <t>请在苹果大战中使用</t>
-  </si>
-  <si>
     <t>8万~30万</t>
   </si>
   <si>
     <t>ty_icon_jb_15y</t>
-  </si>
-  <si>
-    <t>小游戏币</t>
   </si>
   <si>
     <t>18万~80万</t>
@@ -139,18 +127,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -161,59 +155,82 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,14 +246,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +268,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -258,46 +283,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +306,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,187 +490,67 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,26 +578,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,21 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -592,27 +625,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,151 +643,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1089,8 +1114,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1127,13 +1152,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>1000651</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1622505600</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1623081599</v>
+        <v>1000658</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1623110400</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1624895999</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -1259,8 +1284,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1274,7 +1299,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="15" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1294,34 +1319,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:6">
+    <row r="2" ht="18" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1331,143 +1354,141 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="15" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" ht="15" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>200</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>400</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>800</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1200</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>2000</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>3000</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/config_debug/act_053_xcns_config.xlsx
+++ b/config_debug/act_053_xcns_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>水滴</t>
   </si>
   <si>
-    <t>10个到40个</t>
+    <t>10个~40个</t>
   </si>
   <si>
     <t>zpg_icon_shui</t>
@@ -139,9 +139,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -159,8 +159,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,48 +227,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,8 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,15 +275,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,45 +290,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,175 +318,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +510,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +526,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,23 +587,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,25 +603,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1089,7 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1259,8 +1259,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/config_debug/act_053_xcns_config.xlsx
+++ b/config_debug/act_053_xcns_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>8000~5万</t>
   </si>
   <si>
-    <t>ty_icon_jb_6y</t>
+    <t>ty_icon_yxb_1</t>
   </si>
   <si>
     <t>ty_icon_flq2</t>
@@ -127,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -153,22 +153,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -177,62 +236,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,9 +260,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,44 +269,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,25 +306,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,19 +450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,13 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,115 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,11 +530,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,15 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -574,30 +563,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,8 +585,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,19 +643,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,112 +664,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1114,7 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1284,8 +1284,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/config_debug/act_053_xcns_config.xlsx
+++ b/config_debug/act_053_xcns_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -119,40 +119,6 @@
   </si>
   <si>
     <t>话费碎片</t>
-  </si>
-  <si>
-    <r>
-      <t>1624924800,1625443200,1626048000,1626652800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1627344000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1625500799,1626105599,1626710399,1627315199</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1627919999</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>com_award_icon_hfsp</t>
@@ -181,6 +147,14 @@
       </rPr>
       <t>2</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1624924800,1625443200,1626048000,1626652800,1627344000,1627948800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1625500799,1626105599,1626710399,1627315199,1627919999,1630339199</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -590,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,16 +613,16 @@
         <v>1000688</v>
       </c>
       <c r="C2" s="7">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="D2" s="7">
-        <v>1627919999</v>
+        <v>1630339199</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -803,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -852,7 +826,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -887,7 +861,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -904,7 +878,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -956,7 +930,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1007,7 +981,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">

--- a/config_debug/act_053_xcns_config.xlsx
+++ b/config_debug/act_053_xcns_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>line</t>
   </si>
@@ -116,21 +116,6 @@
   </si>
   <si>
     <t>800~3000</t>
-  </si>
-  <si>
-    <t>话费碎片</t>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -155,6 +140,42 @@
   </si>
   <si>
     <t>1625500799,1626105599,1626710399,1627315199,1627919999,1630339199</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券</t>
+  </si>
+  <si>
+    <t>福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ty_icon_flq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -619,10 +640,10 @@
         <v>1630339199</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -777,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -820,13 +841,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
+      <c r="E2" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -855,13 +876,13 @@
         <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -872,13 +893,13 @@
         <v>100</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -924,13 +945,13 @@
         <v>800</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -975,13 +996,13 @@
         <v>3000</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
